--- a/xlsx/ieee-code_clone|detection-metadata.xlsx
+++ b/xlsx/ieee-code_clone|detection-metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flicker_soul/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flicker_soul/Documents/Developer/COMP_RESEARCH/quantitative_assessment/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CD2820-0D93-5E4B-94B8-E93A1A444330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F2ABC9-C765-6441-9B6D-D469C6072F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="780" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="code_clone|detection-metadata" sheetId="1" r:id="rId1"/>
@@ -11298,7 +11298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF308"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="142" workbookViewId="0">
+      <selection activeCell="P186" sqref="P186"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29789,7 +29791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="252" spans="1:32" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>1</v>
       </c>
@@ -29862,7 +29864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="253" spans="1:32" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>1</v>
       </c>
@@ -29926,7 +29928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="254" spans="1:32" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>2</v>
       </c>
